--- a/teaching/traditional_assets/database/data/australia/australia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00274</v>
+        <v>-0.0411</v>
       </c>
       <c r="E2">
-        <v>-0.0205</v>
+        <v>-0.1515</v>
       </c>
       <c r="F2">
-        <v>0.05885</v>
+        <v>0.1775</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.002344752358460953</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.001655941291943619</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17836.1</v>
+        <v>12691.7</v>
       </c>
       <c r="L2">
-        <v>0.3364089545088468</v>
+        <v>0.2646221143581532</v>
       </c>
       <c r="M2">
-        <v>15185.8</v>
+        <v>10974.5</v>
       </c>
       <c r="N2">
-        <v>0.0582849729796119</v>
+        <v>0.04011631519883611</v>
       </c>
       <c r="O2">
-        <v>0.8514080993042202</v>
+        <v>0.8646989764964503</v>
       </c>
       <c r="P2">
-        <v>13379.9</v>
+        <v>10788.3</v>
       </c>
       <c r="Q2">
-        <v>0.05135370609186932</v>
+        <v>0.03943567754882716</v>
       </c>
       <c r="R2">
-        <v>0.75015838664282</v>
+        <v>0.8500279710361889</v>
       </c>
       <c r="S2">
-        <v>1805.900000000001</v>
+        <v>186.1999999999996</v>
       </c>
       <c r="T2">
-        <v>0.1189203071290285</v>
+        <v>0.01696660440111163</v>
       </c>
       <c r="U2">
-        <v>80716.8</v>
+        <v>117133.4</v>
       </c>
       <c r="V2">
-        <v>0.3098010316875461</v>
+        <v>0.4281707954541301</v>
       </c>
       <c r="W2">
-        <v>0.09577933862369152</v>
+        <v>0.05573564794305036</v>
       </c>
       <c r="X2">
-        <v>0.08641176294210526</v>
+        <v>0.08399779715902757</v>
       </c>
       <c r="Y2">
-        <v>0.009367575681586263</v>
+        <v>-0.02826214921597721</v>
       </c>
       <c r="Z2">
-        <v>0.06856932013464105</v>
+        <v>0.05969463404713502</v>
       </c>
       <c r="AA2">
-        <v>-0.0001187851309225175</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03565122162309226</v>
+        <v>0.02968172793475884</v>
       </c>
       <c r="AC2">
-        <v>-0.03576874994799918</v>
+        <v>-0.02968172793475884</v>
       </c>
       <c r="AD2">
-        <v>727190.6</v>
+        <v>723109.3999999999</v>
       </c>
       <c r="AE2">
-        <v>7449.583298842385</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>734640.1832988424</v>
+        <v>723109.3999999999</v>
       </c>
       <c r="AG2">
-        <v>653923.3832988424</v>
+        <v>605975.9999999999</v>
       </c>
       <c r="AH2">
-        <v>0.7381951960527073</v>
+        <v>0.7255207407339032</v>
       </c>
       <c r="AI2">
-        <v>0.8107174344578235</v>
+        <v>0.7950581035774291</v>
       </c>
       <c r="AJ2">
-        <v>0.7150866124277547</v>
+        <v>0.6889668839385908</v>
       </c>
       <c r="AK2">
-        <v>0.7922082600046634</v>
+        <v>0.7647622952712722</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>532.5062975981253</v>
-      </c>
-      <c r="AP2">
-        <v>478.8542642785899</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0113</v>
+        <v>-0.0564</v>
       </c>
       <c r="E3">
-        <v>-0.0392</v>
+        <v>-0.137</v>
       </c>
       <c r="F3">
-        <v>0.0398</v>
+        <v>0.176</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +731,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001354080396826604</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009580364703200478</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4015</v>
+        <v>2564.2</v>
       </c>
       <c r="L3">
-        <v>0.3308911396995196</v>
+        <v>0.2400868889450671</v>
       </c>
       <c r="M3">
-        <v>3846.3</v>
+        <v>2138.4</v>
       </c>
       <c r="N3">
-        <v>0.07837403873975574</v>
+        <v>0.04322209129110435</v>
       </c>
       <c r="O3">
-        <v>0.9579825653798257</v>
+        <v>0.8339443101162157</v>
       </c>
       <c r="P3">
-        <v>3015.4</v>
+        <v>2050.9</v>
       </c>
       <c r="Q3">
-        <v>0.06144322502557249</v>
+        <v>0.04145351058217635</v>
       </c>
       <c r="R3">
-        <v>0.7510336239103362</v>
+        <v>0.799820606816941</v>
       </c>
       <c r="S3">
-        <v>830.9000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="T3">
-        <v>0.2160257910199413</v>
+        <v>0.04091844369622148</v>
       </c>
       <c r="U3">
-        <v>38000.9</v>
+        <v>51842.3</v>
       </c>
       <c r="V3">
-        <v>0.7743244179459698</v>
+        <v>1.047854762130948</v>
       </c>
       <c r="W3">
-        <v>0.0935919252197021</v>
+        <v>0.0625493965088255</v>
       </c>
       <c r="X3">
-        <v>0.09314311833831733</v>
+        <v>0.09273701385025866</v>
       </c>
       <c r="Y3">
-        <v>0.0004488068813847668</v>
+        <v>-0.03018761734143316</v>
       </c>
       <c r="Z3">
-        <v>0.08743322656203076</v>
+        <v>0.06011431530423573</v>
       </c>
       <c r="AA3">
-        <v>8.376421976418099e-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03549375561830066</v>
+        <v>0.02960084849567224</v>
       </c>
       <c r="AC3">
-        <v>-0.03540999139853648</v>
+        <v>-0.02960084849567224</v>
       </c>
       <c r="AD3">
-        <v>177010.9</v>
+        <v>189992.8</v>
       </c>
       <c r="AE3">
-        <v>996.8486193647284</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>178007.7486193647</v>
+        <v>189992.8</v>
       </c>
       <c r="AG3">
-        <v>140006.8486193647</v>
+        <v>138150.5</v>
       </c>
       <c r="AH3">
-        <v>0.7838852094197952</v>
+        <v>0.7933970162965747</v>
       </c>
       <c r="AI3">
-        <v>0.8127838472248534</v>
+        <v>0.8121665449083136</v>
       </c>
       <c r="AJ3">
-        <v>0.7404516144713041</v>
+        <v>0.7363110072634166</v>
       </c>
       <c r="AK3">
-        <v>0.7734798325678095</v>
+        <v>0.7586893366503561</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>820.2544022242816</v>
-      </c>
-      <c r="AP3">
-        <v>648.7805774762035</v>
       </c>
     </row>
     <row r="4">
@@ -853,13 +841,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0114</v>
+        <v>-0.04190000000000001</v>
       </c>
       <c r="E4">
-        <v>-0.0195</v>
+        <v>-0.166</v>
       </c>
       <c r="F4">
-        <v>0.0902</v>
+        <v>0.179</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,103 +856,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.006347714770684185</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.004501822133308902</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3236</v>
+        <v>1834.4</v>
       </c>
       <c r="L4">
-        <v>0.2821691096326396</v>
+        <v>0.1790130083046266</v>
       </c>
       <c r="M4">
-        <v>2689.6</v>
+        <v>1665.2</v>
       </c>
       <c r="N4">
-        <v>0.05287223460678044</v>
+        <v>0.02901540681161592</v>
       </c>
       <c r="O4">
-        <v>0.8311495673671199</v>
+        <v>0.907762756214566</v>
       </c>
       <c r="P4">
-        <v>2202.7</v>
+        <v>1665.2</v>
       </c>
       <c r="Q4">
-        <v>0.04330074032136945</v>
+        <v>0.02901540681161592</v>
       </c>
       <c r="R4">
-        <v>0.6806860321384425</v>
+        <v>0.907762756214566</v>
       </c>
       <c r="S4">
-        <v>486.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1810306365258775</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>17509.3</v>
+        <v>24840.1</v>
       </c>
       <c r="V4">
-        <v>0.3441983259222564</v>
+        <v>0.4328282529072908</v>
       </c>
       <c r="W4">
-        <v>0.08642723793397236</v>
+        <v>0.04892189937727522</v>
       </c>
       <c r="X4">
-        <v>0.1006629245876316</v>
+        <v>0.08853585395341607</v>
       </c>
       <c r="Y4">
-        <v>-0.01423568665365919</v>
+        <v>-0.03961395457614085</v>
       </c>
       <c r="Z4">
-        <v>0.05052464259527616</v>
+        <v>0.04513811497614758</v>
       </c>
       <c r="AA4">
-        <v>-0.0002274529543129359</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03536693178467632</v>
+        <v>0.0296359143263922</v>
       </c>
       <c r="AC4">
-        <v>-0.03559438473898926</v>
+        <v>-0.0296359143263922</v>
       </c>
       <c r="AD4">
-        <v>208965.4</v>
+        <v>205164.9</v>
       </c>
       <c r="AE4">
-        <v>1702.987486523187</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>210668.3874865232</v>
+        <v>205164.9</v>
       </c>
       <c r="AG4">
-        <v>193159.0874865232</v>
+        <v>180324.8</v>
       </c>
       <c r="AH4">
-        <v>0.8054976197209394</v>
+        <v>0.7814165483740366</v>
       </c>
       <c r="AI4">
-        <v>0.8488864223843214</v>
+        <v>0.8236163828143033</v>
       </c>
       <c r="AJ4">
-        <v>0.7915418927490323</v>
+        <v>0.7585756052415707</v>
       </c>
       <c r="AK4">
-        <v>0.8374155057226956</v>
+        <v>0.8040795068633886</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>780.3039581777446</v>
-      </c>
-      <c r="AP4">
-        <v>721.281133258115</v>
       </c>
     </row>
     <row r="5">
@@ -984,13 +966,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.00582</v>
+        <v>-0.0403</v>
       </c>
       <c r="E5">
-        <v>-0.0215</v>
+        <v>-0.222</v>
       </c>
       <c r="F5">
-        <v>0.07440000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +981,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.002667867094284925</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.001858117982461038</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4575.4</v>
+        <v>1641.6</v>
       </c>
       <c r="L5">
-        <v>0.3416746943865702</v>
+        <v>0.1346677604593929</v>
       </c>
       <c r="M5">
-        <v>3425.5</v>
+        <v>1858.8</v>
       </c>
       <c r="N5">
-        <v>0.05581753832516425</v>
+        <v>0.03413667525531801</v>
       </c>
       <c r="O5">
-        <v>0.7486777112383617</v>
+        <v>1.132309941520468</v>
       </c>
       <c r="P5">
-        <v>3356.7</v>
+        <v>1805</v>
       </c>
       <c r="Q5">
-        <v>0.05469646209198039</v>
+        <v>0.03314864366034486</v>
       </c>
       <c r="R5">
-        <v>0.7336407745770862</v>
+        <v>1.099537037037037</v>
       </c>
       <c r="S5">
-        <v>68.80000000000018</v>
+        <v>53.79999999999995</v>
       </c>
       <c r="T5">
-        <v>0.02008465917384329</v>
+        <v>0.02894340434689044</v>
       </c>
       <c r="U5">
-        <v>13528.7</v>
+        <v>21597.8</v>
       </c>
       <c r="V5">
-        <v>0.2204462795911983</v>
+        <v>0.3966414271730727</v>
       </c>
       <c r="W5">
-        <v>0.09796675202768095</v>
+        <v>0.03718646010542506</v>
       </c>
       <c r="X5">
-        <v>0.07968040754589317</v>
+        <v>0.07945974036463907</v>
       </c>
       <c r="Y5">
-        <v>0.01828634448178777</v>
+        <v>-0.04227328025921401</v>
       </c>
       <c r="Z5">
-        <v>0.07234606757705164</v>
+        <v>0.06466984162520246</v>
       </c>
       <c r="AA5">
-        <v>-0.0001344275291252611</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03580868762788384</v>
+        <v>0.02972754154312549</v>
       </c>
       <c r="AC5">
-        <v>-0.0359431151570091</v>
+        <v>-0.02972754154312549</v>
       </c>
       <c r="AD5">
-        <v>163878.7</v>
+        <v>163452.3</v>
       </c>
       <c r="AE5">
-        <v>2229.128375231394</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>166107.8283752314</v>
+        <v>163452.3</v>
       </c>
       <c r="AG5">
-        <v>152579.1283752314</v>
+        <v>141854.5</v>
       </c>
       <c r="AH5">
-        <v>0.7302167496866157</v>
+        <v>0.7501115169983111</v>
       </c>
       <c r="AI5">
-        <v>0.7899036227887344</v>
+        <v>0.7700900208196997</v>
       </c>
       <c r="AJ5">
-        <v>0.7131574444678742</v>
+        <v>0.7226185418494169</v>
       </c>
       <c r="AK5">
-        <v>0.7754579506578198</v>
+        <v>0.7440450745358979</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>399.6066812972446</v>
-      </c>
-      <c r="AP5">
-        <v>372.0534708003692</v>
       </c>
     </row>
     <row r="6">
@@ -1115,13 +1091,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0117</v>
+        <v>-0.0106</v>
       </c>
       <c r="E6">
-        <v>-0.00139</v>
+        <v>0.0125</v>
       </c>
       <c r="F6">
-        <v>0.0433</v>
+        <v>0.0775</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1130,103 +1106,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.002010742898614432</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.001431104411291064</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6009.7</v>
+        <v>6651.5</v>
       </c>
       <c r="L6">
-        <v>0.3750015599845249</v>
+        <v>0.4480935057935866</v>
       </c>
       <c r="M6">
-        <v>5224.400000000001</v>
+        <v>5312.099999999999</v>
       </c>
       <c r="N6">
-        <v>0.05265024932378231</v>
+        <v>0.04732366209830878</v>
       </c>
       <c r="O6">
-        <v>0.8693279198628885</v>
+        <v>0.7986318875441629</v>
       </c>
       <c r="P6">
-        <v>4805.1</v>
+        <v>5267.2</v>
       </c>
       <c r="Q6">
-        <v>0.04842464455740494</v>
+        <v>0.04692366352369346</v>
       </c>
       <c r="R6">
-        <v>0.7995573822320583</v>
+        <v>0.7918815304818462</v>
       </c>
       <c r="S6">
-        <v>419.3000000000002</v>
+        <v>44.89999999999964</v>
       </c>
       <c r="T6">
-        <v>0.0802580200597198</v>
+        <v>0.008452401121966763</v>
       </c>
       <c r="U6">
-        <v>11677.9</v>
+        <v>18853.2</v>
       </c>
       <c r="V6">
-        <v>0.1176870734588082</v>
+        <v>0.1679566397981656</v>
       </c>
       <c r="W6">
-        <v>0.1207191282077035</v>
+        <v>0.136310167879861</v>
       </c>
       <c r="X6">
-        <v>0.06660322250905423</v>
+        <v>0.05513041439641753</v>
       </c>
       <c r="Y6">
-        <v>0.05411590569864927</v>
+        <v>0.08117975348344345</v>
       </c>
       <c r="Z6">
-        <v>0.07207212269489424</v>
+        <v>0.07059639303985385</v>
       </c>
       <c r="AA6">
-        <v>-0.000103142732719774</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03631197282091581</v>
+        <v>0.03018330337425221</v>
       </c>
       <c r="AC6">
-        <v>-0.03641511555363558</v>
+        <v>-0.03018330337425221</v>
       </c>
       <c r="AD6">
-        <v>177335.6</v>
+        <v>164499.4</v>
       </c>
       <c r="AE6">
-        <v>2520.618817723076</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>179856.2188177231</v>
+        <v>164499.4</v>
       </c>
       <c r="AG6">
-        <v>168178.3188177231</v>
+        <v>145646.2</v>
       </c>
       <c r="AH6">
-        <v>0.6444504880979899</v>
+        <v>0.59439753886001</v>
       </c>
       <c r="AI6">
-        <v>0.7864574125957634</v>
+        <v>0.7679050912526655</v>
       </c>
       <c r="AJ6">
-        <v>0.62892331038384</v>
+        <v>0.5647464914233068</v>
       </c>
       <c r="AK6">
-        <v>0.7749663004438053</v>
+        <v>0.7455073882144824</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>375.7906336088155</v>
-      </c>
-      <c r="AP6">
-        <v>356.3855028983324</v>
       </c>
     </row>
   </sheetData>
